--- a/colheitas.xlsx
+++ b/colheitas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>estufa7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>tomate</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G17" t="n">
+        <v>41</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>estufa5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>tomate</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>campo3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>abóbora ítalia</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G19" t="n">
+        <v>41</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>campo5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>abóbora ítalia</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G20" t="n">
+        <v>41</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>campo4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>abóbora ítalia</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G21" t="n">
+        <v>41</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>campo2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>abóbora ítalia</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G22" t="n">
+        <v>41</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>campo1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>abóbora ítalia</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G23" t="n">
+        <v>41</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
